--- a/statistics/HistoricalDistanceData/historical_distance/Q22039066-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q22039066-en.xlsx
@@ -37,24 +37,24 @@
     <t>Singapore leaders condemn Istanbul bomb attack</t>
   </si>
   <si>
+    <t>Sultanahmet suicide bomber spends 11 days in İstanbul before attack</t>
+  </si>
+  <si>
     <t>At least 10 killed as 'suicide bomber' hits Istanbul tourist hub</t>
   </si>
   <si>
-    <t>Sultanahmet suicide bomber spends 11 days in İstanbul before attack</t>
-  </si>
-  <si>
     <t>2016-01-13T11:24:05UTC</t>
   </si>
   <si>
     <t>2016-01-13T00:00:00UTC</t>
   </si>
   <si>
+    <t>2015-01-16T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2016-01-05T00:00:00UTC</t>
   </si>
   <si>
-    <t>2015-01-16T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -67,10 +67,10 @@
     <t>http://news.asiaone.com/news/singapore/singapore-leaders-condemn-istanbul-bomb-attack</t>
   </si>
   <si>
+    <t>http://www.todayszaman.com/anasayfa_sultanahmet-suicide-bomber-spends-11-days-in-i-stanbul-before-attack_370026.html</t>
+  </si>
+  <si>
     <t>http://www.dawn.com/news/1232465#comments</t>
-  </si>
-  <si>
-    <t>http://www.todayszaman.com/anasayfa_sultanahmet-suicide-bomber-spends-11-days-in-i-stanbul-before-attack_370026.html</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3" location="comments"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4" location="comments"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
